--- a/hw6/HW6_Rubrics.xlsx
+++ b/hw6/HW6_Rubrics.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="176">
   <si>
     <t>pts</t>
   </si>
@@ -546,6 +546,34 @@
   </si>
   <si>
     <t>*??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1982,10 +2010,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E163"/>
+  <dimension ref="A1:I163"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1995,7 +2023,7 @@
     <col min="6" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="31">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="31">
       <c r="A1" s="4" t="s">
         <v>152</v>
       </c>
@@ -2006,7 +2034,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2014,7 +2042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>103</v>
       </c>
@@ -2024,8 +2052,20 @@
       <c r="C3" s="5" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="3">
+        <f>SUM(B3:B12)</f>
+        <v>39</v>
+      </c>
+      <c r="H3" s="3">
+        <f>SUM(B27:B49)</f>
+        <v>25</v>
+      </c>
+      <c r="I3" s="3">
+        <f>SUM(F3:H3)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>104</v>
       </c>
@@ -2043,7 +2083,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>105</v>
       </c>
@@ -2054,15 +2094,18 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:9" ht="19">
       <c r="A6" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B6" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="C6" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>107</v>
       </c>
@@ -2073,15 +2116,18 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B8" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="C8" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>109</v>
       </c>
@@ -2092,7 +2138,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>110</v>
       </c>
@@ -2103,31 +2149,40 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:9" ht="19">
       <c r="A11" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B11" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="C11" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="19">
       <c r="A12" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="C12" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="C13" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
         <v>114</v>
       </c>
@@ -2142,7 +2197,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
         <v>115</v>
       </c>
@@ -2150,7 +2205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
         <v>116</v>
       </c>
@@ -2264,18 +2319,18 @@
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="19">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>157</v>
+      <c r="C29" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2322,14 +2377,14 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="19">
+    <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B34" s="2">
         <v>1</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="2" t="s">
         <v>157</v>
       </c>
     </row>

--- a/hw6/HW6_Rubrics.xlsx
+++ b/hw6/HW6_Rubrics.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="182">
   <si>
     <t>pts</t>
   </si>
@@ -570,6 +570,30 @@
   </si>
   <si>
     <t>＊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can't find message</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2012,13 +2036,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I163"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="121.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="122.1640625" style="3" customWidth="1"/>
     <col min="2" max="5" width="10.83203125" style="2"/>
     <col min="6" max="16384" width="10.83203125" style="3"/>
   </cols>
@@ -2189,6 +2213,9 @@
       <c r="B14" s="2">
         <v>3</v>
       </c>
+      <c r="C14" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="D14" s="2" t="s">
         <v>155</v>
       </c>
@@ -2204,6 +2231,9 @@
       <c r="B15" s="2">
         <v>3</v>
       </c>
+      <c r="C15" s="2" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
@@ -2212,6 +2242,9 @@
       <c r="B16" s="2">
         <v>3</v>
       </c>
+      <c r="C16" s="2" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
@@ -2220,6 +2253,9 @@
       <c r="B17" s="2">
         <v>6</v>
       </c>
+      <c r="C17" s="2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
@@ -2228,6 +2264,9 @@
       <c r="B18" s="2">
         <v>3</v>
       </c>
+      <c r="C18" s="2" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
@@ -2236,6 +2275,9 @@
       <c r="B19" s="2">
         <v>2</v>
       </c>
+      <c r="C19" s="2" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
@@ -2244,6 +2286,9 @@
       <c r="B20" s="2">
         <v>2</v>
       </c>
+      <c r="C20" s="2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
@@ -2260,6 +2305,9 @@
       <c r="B22" s="2">
         <v>2</v>
       </c>
+      <c r="C22" s="2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
@@ -2268,6 +2316,9 @@
       <c r="B23" s="2">
         <v>2</v>
       </c>
+      <c r="C23" s="2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
@@ -2275,6 +2326,12 @@
       </c>
       <c r="B24" s="2">
         <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:5">
